--- a/load testing/2 instances monolith.xlsx
+++ b/load testing/2 instances monolith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sibbt\Documents\uni_work\year_3\Semester_2\Final_Year_Project\monolithic_implementation\load testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3426A5-6224-4BBA-B8CA-DDFA421B7728}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEBDE7C-2FD9-4B78-893D-9295009185AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D9F6E90-4241-4935-ACCE-D6301A857960}"/>
+    <workbookView xWindow="30225" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{8D9F6E90-4241-4935-ACCE-D6301A857960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,10 +621,10 @@
         <v>14814</v>
       </c>
       <c r="E9" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="F9" s="2">
         <v>25919</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
